--- a/data/excel/vue_testcase.xlsx
+++ b/data/excel/vue_testcase.xlsx
@@ -9,14 +9,14 @@
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="user" sheetId="2" r:id="rId2"/>
+    <sheet name="users" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -77,8 +77,14 @@
     <t>post</t>
   </si>
   <si>
-    <r>
-      <t>Content-Type:</t>
+    <t>{"Content-Type":"application/json"}</t>
+  </si>
+  <si>
+    <t>{"username":"admin","password":"123456"}</t>
+  </si>
+  <si>
+    <r>
+      <t>"msg":"</t>
     </r>
     <r>
       <rPr>
@@ -87,7 +93,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>登录成功</t>
     </r>
     <r>
       <rPr>
@@ -96,12 +102,56 @@
         <rFont val="DejaVu Sans"/>
         <charset val="134"/>
       </rPr>
-      <t>application/json</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
+      <t>","status":200</t>
+    </r>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>用户登录-错误密码</t>
+  </si>
+  <si>
+    <t>{"username":"admin","password":"1234567"}</t>
+  </si>
+  <si>
+    <r>
+      <t>msg":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密码错误</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","status":400</t>
+    </r>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <r>
+      <t>用户登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
     </r>
     <r>
       <rPr>
@@ -110,7 +160,24 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>错误用户名</t>
+    </r>
+  </si>
+  <si>
+    <t>{"username":"admintest","password":"1234567"}</t>
+  </si>
+  <si>
+    <r>
+      <t>msg":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户名不存在</t>
     </r>
     <r>
       <rPr>
@@ -119,8 +186,13 @@
         <rFont val="DejaVu Sans"/>
         <charset val="134"/>
       </rPr>
-      <t>"username":"admin","password":</t>
-    </r>
+      <t>","status":400</t>
+    </r>
+  </si>
+  <si>
+    <t>${base_url}/users</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -128,7 +200,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>获取用户</t>
     </r>
     <r>
       <rPr>
@@ -137,8 +209,26 @@
         <rFont val="DejaVu Sans"/>
         <charset val="134"/>
       </rPr>
-      <t>"123456"}</t>
-    </r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常</t>
+    </r>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>{"Authorization":"${token}"}</t>
+  </si>
+  <si>
+    <t>{"pagenum":1,"pagesize":1}</t>
   </si>
   <si>
     <r>
@@ -148,10 +238,30 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取管理员列表成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","status":200</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>登录成功</t>
+      <t>获取用户－空</t>
     </r>
     <r>
       <rPr>
@@ -160,25 +270,8 @@
         <rFont val="DejaVu Sans"/>
         <charset val="134"/>
       </rPr>
-      <t>","status":200</t>
-    </r>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>用户登录-错误密码</t>
-  </si>
-  <si>
-    <t>{"username":"admin","password":"1234567"}</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>${base_url}/users</t>
-  </si>
-  <si>
+      <t>token</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -186,7 +279,24 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>获取用户</t>
+      <t>获取失败</t>
+    </r>
+  </si>
+  <si>
+    <t>{"Authorization":""}</t>
+  </si>
+  <si>
+    <r>
+      <t>"msg":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无效</t>
     </r>
     <r>
       <rPr>
@@ -195,123 +305,7 @@
         <rFont val="DejaVu Sans"/>
         <charset val="134"/>
       </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>正常</t>
-    </r>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>{Authorization:"${token}"}</t>
-  </si>
-  <si>
-    <r>
-      <t>{"pagenum":1,"pagesize":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"msg":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>登录成功</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","status":200</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获取用户－空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>token</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获取失败</t>
-    </r>
-  </si>
-  <si>
-    <t>{Authorization:}</t>
-  </si>
-  <si>
-    <r>
-      <t>{“pagenum":1,“pagesize":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1}</t>
+      <t>token","status":400</t>
     </r>
   </si>
 </sst>
@@ -1404,21 +1398,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.98333333333333" defaultRowHeight="15.75" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.98333333333333" defaultRowHeight="15.75" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="6.74166666666667" style="9" customWidth="1"/>
     <col min="2" max="2" width="18.75" style="9" customWidth="1"/>
     <col min="3" max="3" width="24.35" style="9" customWidth="1"/>
     <col min="4" max="4" width="15.0083333333333" style="9" customWidth="1"/>
-    <col min="5" max="5" width="34.4416666666667" style="9" customWidth="1"/>
+    <col min="5" max="5" width="36" style="9" customWidth="1"/>
     <col min="6" max="6" width="39" style="9" customWidth="1"/>
     <col min="7" max="7" width="25.75" style="9" customWidth="1"/>
     <col min="8" max="9" width="12.4083333333333" style="9" customWidth="1"/>
@@ -1505,12 +1499,40 @@
         <v>18</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" s="9" customFormat="1" ht="28.5" spans="1:10">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1526,7 +1548,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.98333333333333" defaultRowHeight="15.75" outlineLevelRow="2"/>
@@ -1579,22 +1601,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -1607,27 +1629,27 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel/vue_testcase.xlsx
+++ b/data/excel/vue_testcase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27615" windowHeight="12885" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="27615" windowHeight="12885" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -109,7 +109,27 @@
     <t>yes</t>
   </si>
   <si>
-    <t>用户登录-错误密码</t>
+    <r>
+      <t>用户登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错误密码</t>
+    </r>
   </si>
   <si>
     <t>{"username":"admin","password":"1234567"}</t>
@@ -190,6 +210,90 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>用户登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户名</t>
+    </r>
+  </si>
+  <si>
+    <t>{"username":"","password":"1234567"}</t>
+  </si>
+  <si>
+    <r>
+      <t>msg":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数错误</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","status":400</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>用户登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空密码</t>
+    </r>
+  </si>
+  <si>
+    <t>{"username":"admin","password":""}</t>
+  </si>
+  <si>
     <t>${base_url}/users</t>
   </si>
   <si>
@@ -306,6 +410,177 @@
         <charset val="134"/>
       </rPr>
       <t>token","status":400</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>添加用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用基本参数</t>
+    </r>
+  </si>
+  <si>
+    <t>{"Authorization":"${token}","Content-Type":"application/json"}</t>
+  </si>
+  <si>
+    <t>{"username":"flora_test1","password":"123456"}</t>
+  </si>
+  <si>
+    <r>
+      <t>"msg":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户创建成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","status":201</t>
+    </r>
+  </si>
+  <si>
+    <t>${base_url}/users/${id}</t>
+  </si>
+  <si>
+    <r>
+      <t>添加用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询用户</t>
+    </r>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <r>
+      <t>"msg":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","status":200,"username":"flora_test1",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>添加用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除存在用户</t>
+    </r>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <r>
+      <t>"msg":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","status":201</t>
     </r>
   </si>
 </sst>
@@ -1398,15 +1673,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.98333333333333" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.98333333333333" defaultRowHeight="15.75" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="6.74166666666667" style="9" customWidth="1"/>
     <col min="2" max="2" width="18.75" style="9" customWidth="1"/>
@@ -1416,7 +1689,7 @@
     <col min="6" max="6" width="39" style="9" customWidth="1"/>
     <col min="7" max="7" width="25.75" style="9" customWidth="1"/>
     <col min="8" max="9" width="12.4083333333333" style="9" customWidth="1"/>
-    <col min="10" max="16384" width="8.98333333333333" style="9"/>
+    <col min="10" max="16382" width="8.98333333333333" style="9"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
@@ -1486,7 +1759,7 @@
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -1532,6 +1805,62 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" s="9" customFormat="1" ht="28.5" spans="1:10">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" s="9" customFormat="1" ht="28.5" spans="1:10">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1545,13 +1874,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.98333333333333" defaultRowHeight="15.75" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.98333333333333" defaultRowHeight="15.75" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="6.74166666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="45.6666666666667" style="2" customWidth="1"/>
@@ -1561,7 +1890,7 @@
     <col min="6" max="6" width="25.5166666666667" style="2" customWidth="1"/>
     <col min="7" max="7" width="19.75" style="2" customWidth="1"/>
     <col min="8" max="9" width="12.4083333333333" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.98333333333333" style="2"/>
+    <col min="10" max="16383" width="8.98333333333333" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
@@ -1601,22 +1930,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -1629,27 +1958,111 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="7" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="88" customHeight="1" spans="1:10">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="88" customHeight="1" spans="1:10">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="88" customHeight="1" spans="1:10">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel/vue_testcase.xlsx
+++ b/data/excel/vue_testcase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27615" windowHeight="12885" tabRatio="500"/>
+    <workbookView windowWidth="27615" windowHeight="12885" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -48,10 +48,19 @@
     <t>是否是冒烟测试</t>
   </si>
   <si>
+    <t>关键字</t>
+  </si>
+  <si>
     <t>${base_url}/login</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>用户登录</t>
     </r>
     <r>
@@ -84,6 +93,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
       <t>"msg":"</t>
     </r>
     <r>
@@ -110,6 +125,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>用户登录</t>
     </r>
     <r>
@@ -136,6 +157,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
       <t>msg":"</t>
     </r>
     <r>
@@ -162,6 +189,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>用户登录</t>
     </r>
     <r>
@@ -188,6 +221,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
       <t>msg":"</t>
     </r>
     <r>
@@ -211,6 +250,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>用户登录</t>
     </r>
     <r>
@@ -246,6 +291,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
       <t>msg":"</t>
     </r>
     <r>
@@ -269,6 +320,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>用户登录</t>
     </r>
     <r>
@@ -336,6 +393,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
       <t>"msg":"</t>
     </r>
     <r>
@@ -391,6 +454,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
       <t>"msg":"</t>
     </r>
     <r>
@@ -414,6 +483,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>添加用户</t>
     </r>
     <r>
@@ -457,10 +532,16 @@
     <t>{"Authorization":"${token}","Content-Type":"application/json"}</t>
   </si>
   <si>
-    <t>{"username":"flora_test1","password":"123456"}</t>
-  </si>
-  <si>
-    <r>
+    <t>{"username":"${test_user}","password":"123456"}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
       <t>"msg":"</t>
     </r>
     <r>
@@ -483,10 +564,19 @@
     </r>
   </si>
   <si>
+    <t>set</t>
+  </si>
+  <si>
     <t>${base_url}/users/${id}</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>添加用户</t>
     </r>
     <r>
@@ -513,6 +603,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
       <t>"msg":"</t>
     </r>
     <r>
@@ -536,6 +632,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>添加用户</t>
     </r>
     <r>
@@ -562,6 +664,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
       <t>"msg":"</t>
     </r>
     <r>
@@ -590,9 +698,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -635,7 +743,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,17 +797,88 @@
       <charset val="1"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -679,110 +891,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <charset val="134"/>
@@ -803,12 +911,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -816,174 +1092,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,11 +1129,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1034,7 +1159,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1049,21 +1174,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1084,6 +1194,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1098,158 +1217,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1272,18 +1380,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1673,26 +1769,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.98333333333333" defaultRowHeight="15.75" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="6.74166666666667" style="9" customWidth="1"/>
-    <col min="2" max="2" width="18.75" style="9" customWidth="1"/>
-    <col min="3" max="3" width="24.35" style="9" customWidth="1"/>
-    <col min="4" max="4" width="15.0083333333333" style="9" customWidth="1"/>
-    <col min="5" max="5" width="36" style="9" customWidth="1"/>
-    <col min="6" max="6" width="39" style="9" customWidth="1"/>
-    <col min="7" max="7" width="25.75" style="9" customWidth="1"/>
-    <col min="8" max="9" width="12.4083333333333" style="9" customWidth="1"/>
-    <col min="10" max="16382" width="8.98333333333333" style="9"/>
+    <col min="1" max="1" width="6.74166666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.35" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.0083333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36" style="2" customWidth="1"/>
+    <col min="6" max="6" width="39" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.75" style="2" customWidth="1"/>
+    <col min="8" max="9" width="12.4083333333333" style="2" customWidth="1"/>
+    <col min="10" max="16382" width="8.98333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1723,146 +1819,154 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" ht="28.5" spans="1:10">
-      <c r="A2" s="10">
+    <row r="2" ht="28.5" spans="1:11">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="7"/>
     </row>
-    <row r="3" ht="28.5" spans="1:10">
-      <c r="A3" s="10">
+    <row r="3" ht="28.5" spans="1:11">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="7"/>
     </row>
-    <row r="4" s="9" customFormat="1" ht="28.5" spans="1:10">
-      <c r="A4" s="10">
+    <row r="4" s="2" customFormat="1" ht="28.5" spans="1:11">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="28.5" spans="1:11">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="E5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7"/>
     </row>
-    <row r="5" s="9" customFormat="1" ht="28.5" spans="1:10">
-      <c r="A5" s="10">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="8" t="s">
+    <row r="6" s="2" customFormat="1" ht="28.5" spans="1:11">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" s="9" customFormat="1" ht="28.5" spans="1:10">
-      <c r="A6" s="10">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="E6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1874,10 +1978,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.98333333333333" defaultRowHeight="15.75" outlineLevelRow="5"/>
@@ -1893,7 +1997,7 @@
     <col min="10" max="16383" width="8.98333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1924,145 +2028,163 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" ht="65" customHeight="1" spans="1:10">
+    <row r="2" ht="65" customHeight="1" spans="1:11">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>34</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" ht="88" customHeight="1" spans="1:10">
+    <row r="3" ht="88" customHeight="1" spans="1:11">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="8" t="s">
         <v>37</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="88" customHeight="1" spans="1:10">
+    <row r="4" s="2" customFormat="1" ht="88" customHeight="1" spans="1:11">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>41</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="88" customHeight="1" spans="1:10">
+    <row r="5" s="2" customFormat="1" ht="88" customHeight="1" spans="1:11">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>45</v>
+        <v>33</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="88" customHeight="1" spans="1:10">
+    <row r="6" s="2" customFormat="1" ht="88" customHeight="1" spans="1:11">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>48</v>
+      <c r="G6" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel/vue_testcase.xlsx
+++ b/data/excel/vue_testcase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -532,7 +532,7 @@
     <t>{"Authorization":"${token}","Content-Type":"application/json"}</t>
   </si>
   <si>
-    <t>{"username":"${test_user}","password":"123456"}</t>
+    <t>{"username":"${test_user}","password":"${test_passwd}"}</t>
   </si>
   <si>
     <r>
@@ -567,6 +567,61 @@
     <t>set</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询用户</t>
+    </r>
+  </si>
+  <si>
+    <t>{"query":"${test_user}","pagenum":1,"pagesize":1}</t>
+  </si>
+  <si>
+    <r>
+      <t>"msg":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","status":200,"username":"${test_user}",</t>
+    </r>
+  </si>
+  <si>
     <t>${base_url}/users/${id}</t>
   </si>
   <si>
@@ -595,72 +650,14 @@
         <rFont val="Droid Sans Fallback"/>
         <charset val="134"/>
       </rPr>
-      <t>查询用户</t>
-    </r>
+      <t>删除存在用户</t>
+    </r>
+  </si>
+  <si>
+    <t>delete</t>
   </si>
   <si>
     <t>{}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"msg":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询成功</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","status":200,"username":"flora_test1",</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>添加用户</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>删除存在用户</t>
-    </r>
-  </si>
-  <si>
-    <t>delete</t>
   </si>
   <si>
     <r>
@@ -1981,7 +1978,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.98333333333333" defaultRowHeight="15.75" outlineLevelRow="5"/>
@@ -2130,10 +2127,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>32</v>
@@ -2142,10 +2139,10 @@
         <v>33</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -2161,7 +2158,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>48</v>
@@ -2173,10 +2170,10 @@
         <v>33</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>

--- a/data/excel/vue_testcase.xlsx
+++ b/data/excel/vue_testcase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27615" windowHeight="12885" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="27615" windowHeight="12885" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="65">
   <si>
     <t>id</t>
   </si>
@@ -535,13 +535,83 @@
     <t>{"username":"${test_user}","password":"${test_passwd}"}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
+    <t>"status":201,"username":"${test_user}"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询用户</t>
+    </r>
+  </si>
+  <si>
+    <t>{"query":"${test_user}","pagenum":1,"pagesize":1}</t>
+  </si>
+  <si>
+    <t>"status":200,"username":"${test_user}"</t>
+  </si>
+  <si>
+    <t>${base_url}/users/${id}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除存在用户</t>
+    </r>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <r>
       <t>"msg":"</t>
     </r>
     <r>
@@ -551,29 +621,23 @@
         <rFont val="Droid Sans Fallback"/>
         <charset val="134"/>
       </rPr>
-      <t>用户创建成功</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","status":201</t>
-    </r>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
+      <t>删除成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","status":200</t>
+    </r>
+  </si>
+  <si>
+    <t>${base_url}/users/${id}/state/true</t>
+  </si>
+  <si>
+    <r>
       <t>添加用户</t>
     </r>
     <r>
@@ -592,11 +656,20 @@
         <rFont val="Droid Sans Fallback"/>
         <charset val="134"/>
       </rPr>
-      <t>查询用户</t>
-    </r>
-  </si>
-  <si>
-    <t>{"query":"${test_user}","pagenum":1,"pagesize":1}</t>
+      <t>修改用户状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>true</t>
+    </r>
+  </si>
+  <si>
+    <t>put</t>
   </si>
   <si>
     <r>
@@ -609,29 +682,23 @@
         <rFont val="Droid Sans Fallback"/>
         <charset val="134"/>
       </rPr>
-      <t>查询成功</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","status":200,"username":"${test_user}",</t>
-    </r>
-  </si>
-  <si>
-    <t>${base_url}/users/${id}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
+      <t>设置状态成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","status":200,"mg_state":1</t>
+    </r>
+  </si>
+  <si>
+    <t>${base_url}/users/${id}/state/false</t>
+  </si>
+  <si>
+    <r>
       <t>添加用户</t>
     </r>
     <r>
@@ -650,23 +717,20 @@
         <rFont val="Droid Sans Fallback"/>
         <charset val="134"/>
       </rPr>
-      <t>删除存在用户</t>
-    </r>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
+      <t>修改用户状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>false</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>"msg":"</t>
     </r>
     <r>
@@ -676,16 +740,117 @@
         <rFont val="Droid Sans Fallback"/>
         <charset val="134"/>
       </rPr>
-      <t>删除成功</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","status":201</t>
+      <t>设置状态成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","status":200,"mg_state":0</t>
+    </r>
+  </si>
+  <si>
+    <t>${base_url}/users/${id}/role</t>
+  </si>
+  <si>
+    <r>
+      <t>添加用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改用户角色</t>
+    </r>
+  </si>
+  <si>
+    <t>{"rid":"30"}</t>
+  </si>
+  <si>
+    <r>
+      <t>"msg":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置角色成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","status":200</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>添加用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编辑用户信息</t>
+    </r>
+  </si>
+  <si>
+    <t>{"email":"12345@qq.com","mobile":"12345678"}</t>
+  </si>
+  <si>
+    <r>
+      <t>"msg":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更新成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","status":200,"email":"12345@qq.com","mobile":"12345678"</t>
     </r>
   </si>
 </sst>
@@ -1768,8 +1933,8 @@
   <sheetPr/>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.98333333333333" defaultRowHeight="15.75" outlineLevelRow="5"/>
@@ -1975,13 +2140,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.98333333333333" defaultRowHeight="15.75" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.98333333333333" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="6.74166666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="45.6666666666667" style="2" customWidth="1"/>
@@ -1991,10 +2156,10 @@
     <col min="6" max="6" width="25.5166666666667" style="2" customWidth="1"/>
     <col min="7" max="7" width="19.75" style="2" customWidth="1"/>
     <col min="8" max="9" width="12.4083333333333" style="2" customWidth="1"/>
-    <col min="10" max="16383" width="8.98333333333333" style="2"/>
+    <col min="10" max="16382" width="8.98333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2025,11 +2190,8 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" ht="65" customHeight="1" spans="1:11">
+    <row r="2" ht="65" customHeight="1" spans="1:10">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2056,11 +2218,8 @@
       <c r="J2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="3" ht="88" customHeight="1" spans="1:11">
+    <row r="3" ht="88" customHeight="1" spans="1:10">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2087,11 +2246,8 @@
       <c r="J3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="88" customHeight="1" spans="1:11">
+    <row r="4" s="2" customFormat="1" ht="88" customHeight="1" spans="1:10">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2118,11 +2274,8 @@
       <c r="J4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="88" customHeight="1" spans="1:11">
+    <row r="5" s="2" customFormat="1" ht="88" customHeight="1" spans="1:10">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2130,7 +2283,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>32</v>
@@ -2139,49 +2292,155 @@
         <v>33</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="88" customHeight="1" spans="1:11">
+    <row r="6" s="2" customFormat="1" ht="80" customHeight="1" spans="1:10">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="7" t="s">
+    </row>
+    <row r="7" s="2" customFormat="1" ht="80" customHeight="1" spans="1:10">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>49</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="80" customHeight="1" spans="1:10">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="80" customHeight="1" spans="1:10">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="80" customHeight="1" spans="1:10">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
